--- a/therm_data/ibkey.xlsx
+++ b/therm_data/ibkey.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ibkey" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ibkey" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t xml:space="preserve">serial_1</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">assay_id</t>
   </si>
   <si>
-    <t xml:space="preserve">mix</t>
+    <t xml:space="preserve">treatment</t>
   </si>
   <si>
     <t xml:space="preserve">rep</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">26AC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ii</t>
+    <t xml:space="preserve">AA</t>
   </si>
   <si>
     <t xml:space="preserve">F7</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">2627A</t>
   </si>
   <si>
-    <t xml:space="preserve">ix</t>
+    <t xml:space="preserve">AB</t>
   </si>
   <si>
     <t xml:space="preserve">2693F</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">AE</t>
   </si>
   <si>
-    <t xml:space="preserve">ti:ii</t>
+    <t xml:space="preserve">AA+BB</t>
   </si>
   <si>
     <t xml:space="preserve">261E9</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">2777D</t>
   </si>
   <si>
-    <t xml:space="preserve">ti</t>
+    <t xml:space="preserve">BB</t>
   </si>
   <si>
     <t xml:space="preserve">B1</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">2C</t>
   </si>
   <si>
-    <t xml:space="preserve">tx</t>
+    <t xml:space="preserve">BA</t>
   </si>
   <si>
     <t xml:space="preserve">8A</t>
@@ -122,27 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26BE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25FFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2724B</t>
   </si>
 </sst>
 </file>
@@ -243,15 +222,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,8 +345,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,88 +712,6 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
